--- a/data/GSCI/2021.xlsx
+++ b/data/GSCI/2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{99887B42-F7E4-44ED-BDA8-DCB872D928DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AE8B9A3-06C8-4B25-AA89-75D82283ECF5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{99887B42-F7E4-44ED-BDA8-DCB872D928DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305891C5-DB66-41F5-AF17-64D0C27CB01E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GSCI 2021" sheetId="1" r:id="rId1"/>
@@ -8389,18 +8389,18 @@
       <selection pane="bottomRight" activeCell="N184" sqref="N5:N184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="8" customWidth="1"/>
-    <col min="5" max="14" width="11.5546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="8" customWidth="1"/>
+    <col min="5" max="14" width="11.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>209</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="N2" s="27"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="N3" s="36"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>57.56038580231013</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>66.258984202499164</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>62.207989868049573</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>63.992654745946446</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>59.865852549907117</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>64.053752479517016</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>71.693827642126863</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>58.272363530031626</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>63.993279824956325</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>64.9829876299723</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>73.172701190535363</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>64.168985482991829</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>64.748494432751443</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>63.615540295382637</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>64.377205573022067</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>60.862567571122462</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>55.657662441131158</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>63.692752046124774</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>62.47637251827441</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>59.699822337139196</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>60.777869104739551</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>62.615081255007667</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>60.715107567845521</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>60.362507642606886</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>59.343514087961182</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>69.678052074097863</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>63.70632473681043</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>55.402328384881748</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>54</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>60.913259316656742</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>53.038436691152896</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>63.355983998808021</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>57.748394135403181</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>58.170417587694516</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>54.329583076679683</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>62.339928343708316</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>52</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>59.086706513395946</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>48.320153554933491</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>80</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>54.368887652851136</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>52.926160847246827</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>112</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>52.837063695249739</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>60.47722907370693</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>76</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>57.780879709405944</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>58.939543363989117</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>62</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>61.669119186034223</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>59</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>55.367723356544445</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>34</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>56.757739827451729</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>36</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>54.5506891991811</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>56.181830874358326</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>46.131404390124082</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>38</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>57.077501268953334</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>58</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>50.832908318124268</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>29</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>38.272078436831826</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>54.803379454885793</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>50</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>50.512628129205339</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>51</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>53.919061592508058</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>61</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>61.993973517531842</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>32</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>57.215452481516593</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>67</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>57.070837638818972</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>142</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>59.950706338939177</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>41.203389660243708</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>36.786478828601808</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>57.84926678860085</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>69</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>60.736387585510734</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>161</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>46.908118102919353</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>205</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>57.2207803110702</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>91</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>52.654816887933578</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>56</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>50.981401001698664</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>107</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>59.429767230980765</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>98</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>50.37942137137118</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>124</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>53.621738962269319</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>75</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>54.347349719706756</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>52.117179125625938</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>135</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>50.156518612301156</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>100</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>55.475730056058623</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>48</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>58.741739802521508</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>73</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>53.11429828087001</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>89</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>61.74603051293461</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>187</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>50.228981072947988</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>102</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>59.065422271484763</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>70</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>61.689367926992148</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>55</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>58.628617272562195</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>63</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>45.289814054192391</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>114</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>55.895518225885375</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>71</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>63.843299402301668</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>82</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>48.508469983167473</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>95</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>45.496975808058977</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>118</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>54.412231891379626</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>109</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>49.203407610856381</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>90</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>53.559786065253803</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>93</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>43.206871012129866</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>78</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>47.378447320063891</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>132</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>48.960559352426124</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>47</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>50.237133998579978</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>191</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>51.644639593562026</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>129</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>53.601593860194043</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>123</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>59.193020267356609</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>106</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>41.381839425321942</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>86</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>52.06269817821299</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>57</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>43.890680250219738</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>97</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>46.353556497267775</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>158</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>48.650180287481994</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>117</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>42.006762397585163</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>136</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>52.308785758082351</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
         <v>83</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>50.239971366968497</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>104</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>53.852660639497337</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>116</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>54.208912462268195</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>85</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>45.063609115334849</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>99</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>43.441567735711672</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>146</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>54.93252005174643</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>172</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>50.618546955547053</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>160</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>54.229643840985418</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>173</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>41.520951082356696</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>137</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>57.076915912031033</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>41</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>54.552478437451484</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>96</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>52.636178275508399</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>203</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>50.50085549386985</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>66</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>49.958337061789635</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>119</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>54.488573005605851</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>103</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>39.768320671400943</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
         <v>87</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>47.910879196238525</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
         <v>88</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>56.980241483398004</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>147</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>43.410187149633465</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>64</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>56.449267567212054</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
         <v>206</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>42.246336628048702</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>151</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>48.980904700301842</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>143</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>45.520931668840092</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
         <v>126</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>32.458638588434148</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>125</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>49.610571759878383</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>84</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>36.108199076279334</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>186</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>58.96545755572685</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>130</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>57.365423509652423</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>141</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>51.570265262640184</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>150</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>37.785343671133283</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>120</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>35.666748281105811</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>134</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>48.327927861985842</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>122</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>48.986394114445098</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>162</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>41.472294652813453</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>139</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>44.239088570724945</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>113</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>56.040053361575588</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>164</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>43.436556333951522</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>140</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>45.006780789432838</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>94</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>33.414883306124878</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>53.046210058062329</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>79</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>49.000409659335908</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>144</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>50.429297335750739</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
         <v>72</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>49.691176796205426</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>127</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>40.392125916343247</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>163</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>43.050970193124279</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>128</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>38.530875545004655</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>121</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>53.095697669636898</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>111</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>46.427837371556002</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>153</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>41.479269512720983</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
         <v>152</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>39.976695258454505</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
         <v>155</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>38.563709704365849</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>110</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>44.963998275118563</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>145</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>39.131692438575584</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>148</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>50.449285479138325</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>154</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>47.252741699008169</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>149</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>44.152929065246866</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>168</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>42.052404640306833</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
         <v>193</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>53.609178094006019</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
         <v>138</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>43.28649931468118</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>190</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>44.867664869203949</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>166</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>40.367564465789393</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>159</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>38.694367176658382</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>165</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>50.428477326933859</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>133</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>33.12949058029529</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>105</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>36.943921208506765</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>170</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>41.979404065612755</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
         <v>171</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>48.387688804518412</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
         <v>156</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>33.681849864450875</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>157</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>37.042269367277108</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>192</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>29.884102448695558</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>167</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>38.372151986408454</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>115</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>40.787141767509347</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>174</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>37.321810564267956</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>108</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>36.067892054353116</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>207</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>31.447925456975025</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>169</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>34.55999778983044</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>208</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>31.530608089076487</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="2" t="s">
         <v>175</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>51.377954425899425</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>176</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>73.172701190535363</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
         <v>177</v>
       </c>
@@ -15993,15 +15993,15 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>194</v>
       </c>
@@ -16019,7 +16019,7 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
@@ -16035,13 +16035,13 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>183</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>178</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>179</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>185</v>
       </c>
@@ -16065,22 +16065,22 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>180</v>
       </c>
@@ -16105,25 +16105,25 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>202</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>195</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>49.147407240958721</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>198</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>53.268706866238006</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>199</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>35.682613857601382</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>200</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>58.227997237029008</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>201</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>51.073749214637552</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>188</v>
       </c>
@@ -16316,12 +16316,12 @@
   <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>57.56038580231013</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>66.258984202499164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>62.207989868049573</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>63.992654745946446</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>59.865852549907117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>64.053752479517016</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>71.693827642126863</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>58.272363530031626</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>63.993279824956325</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>64.9829876299723</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>73.172701190535363</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>64.168985482991829</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>64.748494432751443</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>63.615540295382637</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>64.377205573022067</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>60.862567571122462</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>55.657662441131158</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>63.692752046124774</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>62.47637251827441</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>59.699822337139196</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>60.777869104739551</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>62.615081255007667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>60.715107567845521</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>60.362507642606886</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>59.343514087961182</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>69.678052074097863</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>63.70632473681043</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>55.402328384881748</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>60.913259316656742</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>53.038436691152896</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>63.355983998808021</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>57.748394135403181</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>58.170417587694516</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>54.329583076679683</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>62.339928343708316</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>59.086706513395946</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>48.320153554933491</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>54.368887652851136</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>52.926160847246827</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>52.837063695249739</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>60.47722907370693</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>57.780879709405944</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>58.939543363989117</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>62</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>61.669119186034223</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>55.367723356544445</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>56.757739827451729</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>36</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>54.5506891991811</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>56.181830874358326</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>46.131404390124082</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>38</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>57.077501268953334</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>50.832908318124268</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>38.272078436831826</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>101</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>54.803379454885793</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>50.512628129205339</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>53.919061592508058</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>61.993973517531842</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>32</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>57.215452481516593</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>57.070837638818972</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>142</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>59.950706338939177</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>41.203389660243708</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>36.786478828601808</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>57.84926678860085</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>60.736387585510734</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>161</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>46.908118102919353</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>205</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>57.2207803110702</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>91</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>52.654816887933578</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>56</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>50.981401001698664</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>107</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>59.429767230980765</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>98</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>50.37942137137118</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>53.621738962269319</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>54.347349719706756</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>52.117179125625938</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>135</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>50.156518612301156</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>100</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>55.475730056058623</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>48</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>58.741739802521508</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>73</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>53.11429828087001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>89</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>61.74603051293461</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>187</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>50.228981072947988</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>102</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>59.065422271484763</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>70</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>61.689367926992148</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>55</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>58.628617272562195</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>63</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>45.289814054192391</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>114</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>55.895518225885375</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>71</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>63.843299402301668</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>82</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>48.508469983167473</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>45.496975808058977</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>118</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>54.412231891379626</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>109</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>49.203407610856381</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>53.559786065253803</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>43.206871012129866</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>78</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>47.378447320063891</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>132</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>48.960559352426124</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>47</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>50.237133998579978</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>191</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>51.644639593562026</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>129</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>53.601593860194043</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>123</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>59.193020267356609</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>41.381839425321942</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>86</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>52.06269817821299</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>57</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>43.890680250219738</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>46.353556497267775</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>158</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>48.650180287481994</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>117</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>42.006762397585163</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>136</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>52.308785758082351</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>83</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>50.239971366968497</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>53.852660639497337</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>116</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>54.208912462268195</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>85</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>45.063609115334849</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>99</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>43.441567735711672</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>146</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>54.93252005174643</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>172</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>50.618546955547053</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>160</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>54.229643840985418</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>173</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>41.520951082356696</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>137</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>57.076915912031033</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>41</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>54.552478437451484</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>96</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>52.636178275508399</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>203</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>50.50085549386985</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>66</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>49.958337061789635</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>54.488573005605851</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>103</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>39.768320671400943</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>87</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>47.910879196238525</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>88</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>56.980241483398004</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>147</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>43.410187149633465</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>64</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>56.449267567212054</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>206</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>42.246336628048702</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>151</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>48.980904700301842</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>143</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>45.520931668840092</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>32.458638588434148</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>125</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>49.610571759878383</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>84</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>36.108199076279334</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>186</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>58.96545755572685</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>57.365423509652423</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>141</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>51.570265262640184</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>150</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>37.785343671133283</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>120</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>35.666748281105811</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>48.327927861985842</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>122</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>48.986394114445098</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>162</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>41.472294652813453</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>44.239088570724945</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>113</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>56.040053361575588</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>164</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>43.436556333951522</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>45.006780789432838</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>94</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>33.414883306124878</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>131</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>53.046210058062329</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>79</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>49.000409659335908</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>50.429297335750739</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>72</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>49.691176796205426</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>127</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>40.392125916343247</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>163</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>43.050970193124279</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>128</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>38.530875545004655</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>121</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>53.095697669636898</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>111</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>46.427837371556002</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>41.479269512720983</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>39.976695258454505</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>38.563709704365849</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>110</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>44.963998275118563</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>145</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>39.131692438575584</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>50.449285479138325</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>154</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>47.252741699008169</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>149</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>44.152929065246866</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>168</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>42.052404640306833</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>193</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>53.609178094006019</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>138</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>43.28649931468118</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>190</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>44.867664869203949</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>166</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>40.367564465789393</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>159</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>38.694367176658382</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>50.428477326933859</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>133</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>33.12949058029529</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>105</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>36.943921208506765</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>170</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>41.979404065612755</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>171</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>48.387688804518412</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>156</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>33.681849864450875</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>157</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>37.042269367277108</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>192</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>29.884102448695558</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>167</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>38.372151986408454</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>115</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>40.787141767509347</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>174</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>37.321810564267956</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>108</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>36.067892054353116</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>207</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>31.447925456975025</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>169</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>34.55999778983044</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>208</v>
       </c>
